--- a/BMI/wwwroot/Uploads/shipment.xlsx
+++ b/BMI/wwwroot/Uploads/shipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76664FFB-1091-4DD7-B3F5-9FFE6D826B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98EEC93-9650-4691-88C7-FC48DD11AC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="2880" windowWidth="14400" windowHeight="7460" xr2:uid="{F96FBBBE-E694-4B3F-B47E-9E6703D8740A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F96FBBBE-E694-4B3F-B47E-9E6703D8740A}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>bmi_code</t>
   </si>
@@ -47,10 +47,55 @@
     <t>index</t>
   </si>
   <si>
-    <t>TA23D7GANV6</t>
-  </si>
-  <si>
-    <t>09112SIDID</t>
+    <t>TA10SF7ANV1</t>
+  </si>
+  <si>
+    <t>TA57797ANH2</t>
+  </si>
+  <si>
+    <t>TA10UG2ANH2</t>
+  </si>
+  <si>
+    <t>TA10OF7ANV1</t>
+  </si>
+  <si>
+    <t>TA5762NANV1</t>
+  </si>
+  <si>
+    <t>TA10UF7ANH2</t>
+  </si>
+  <si>
+    <t>TA11J0XANV1</t>
+  </si>
+  <si>
+    <t>TA5802HANN2</t>
+  </si>
+  <si>
+    <t>TA581BEANN3</t>
+  </si>
+  <si>
+    <t>TA579F8ANN1</t>
+  </si>
+  <si>
+    <t>TA10W5RANV2</t>
+  </si>
+  <si>
+    <t>TA10Y0XANV1</t>
+  </si>
+  <si>
+    <t>08224SIDID</t>
+  </si>
+  <si>
+    <t>TA10VG2ANV1</t>
+  </si>
+  <si>
+    <t>TA10VF7ANV1</t>
+  </si>
+  <si>
+    <t>TA11K5VANH2</t>
+  </si>
+  <si>
+    <t>08225SIDID</t>
   </si>
 </sst>
 </file>
@@ -402,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1315B240-61A7-4A54-91A8-D017CBE4EC1A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,16 +476,268 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2160</v>
+      </c>
+      <c r="D2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2880</v>
+      </c>
+      <c r="D3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>6660</v>
+      </c>
+      <c r="D4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1110</v>
+      </c>
+      <c r="D5">
+        <v>1.3299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5040</v>
+      </c>
+      <c r="D6">
+        <v>1.3299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>3640</v>
+      </c>
+      <c r="D7">
+        <v>1.3299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>890</v>
+      </c>
+      <c r="D8">
+        <v>1.3299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>399</v>
-      </c>
-      <c r="D2">
-        <v>1.25</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>7400</v>
+      </c>
+      <c r="D9">
+        <v>1.3299999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2090</v>
+      </c>
+      <c r="D10">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2760</v>
+      </c>
+      <c r="D11">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1810</v>
+      </c>
+      <c r="D13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1360</v>
+      </c>
+      <c r="D14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>610</v>
+      </c>
+      <c r="D15">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>2610</v>
+      </c>
+      <c r="D16">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>950</v>
+      </c>
+      <c r="D17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>830</v>
+      </c>
+      <c r="D18">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1250</v>
+      </c>
+      <c r="D19">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>630</v>
+      </c>
+      <c r="D20">
+        <v>0.83000000000000007</v>
       </c>
     </row>
   </sheetData>
